--- a/excel2mysql/excels/personal_table_fee.xlsx
+++ b/excel2mysql/excels/personal_table_fee.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>KindID</t>
+  </si>
+  <si>
+    <t>int(11)|PRI|</t>
   </si>
   <si>
     <t>游戏标识</t>
@@ -30,7 +33,7 @@
     <t>ServerID</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>无</t>
   </si>
   <si>
     <t>DrawCountLimit</t>
@@ -42,10 +45,16 @@
     <t>AATableFee</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>时间限制</t>
   </si>
   <si>
     <t>TableFee</t>
+  </si>
+  <si>
+    <t>int(20)||</t>
   </si>
   <si>
     <t>创建费用</t>
@@ -378,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,16 +398,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -406,41 +415,41 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>678</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -457,16 +466,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -474,16 +483,16 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -491,33 +500,33 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -528,13 +537,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -545,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -562,13 +571,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -579,30 +588,30 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -613,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -630,13 +639,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -647,30 +656,30 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -681,13 +690,13 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -698,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -715,13 +724,13 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -732,64 +741,64 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>595</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -797,16 +806,16 @@
         <v>200</v>
       </c>
       <c r="B25">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -814,16 +823,16 @@
         <v>200</v>
       </c>
       <c r="B26">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -831,33 +840,33 @@
         <v>200</v>
       </c>
       <c r="B27">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>599</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -868,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -885,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -902,30 +911,30 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -936,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -953,13 +962,13 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -970,30 +979,30 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1004,13 +1013,13 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1021,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1038,30 +1047,30 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1072,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1089,13 +1098,13 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -1106,30 +1115,30 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -1140,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -1157,13 +1166,13 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -1174,12 +1183,29 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>394</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48">
         <v>12</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>48</v>
       </c>
     </row>

--- a/excel2mysql/excels/personal_table_fee.xlsx
+++ b/excel2mysql/excels/personal_table_fee.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>KindID</t>
   </si>
@@ -28,12 +28,6 @@
   </si>
   <si>
     <t>游戏标识</t>
-  </si>
-  <si>
-    <t>ServerID</t>
-  </si>
-  <si>
-    <t>无</t>
   </si>
   <si>
     <t>DrawCountLimit</t>
@@ -387,13 +381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,13 +398,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -418,16 +409,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -435,777 +423,625 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>678</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>679</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>680</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>681</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>28</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>28</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>28</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>28</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>29</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>29</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>29</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>27</v>
       </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
         <v>45</v>
       </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>30</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>30</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>200</v>
       </c>
       <c r="B25">
-        <v>595</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>200</v>
       </c>
       <c r="B26">
-        <v>596</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>200</v>
       </c>
       <c r="B27">
-        <v>597</v>
+        <v>48</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="B28">
-        <v>599</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>389</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>389</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>389</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>391</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>391</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>391</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>392</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>392</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>392</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>393</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>393</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>393</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>394</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>394</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>394</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>394</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>48</v>
-      </c>
-      <c r="D48">
-        <v>12</v>
-      </c>
-      <c r="E48">
         <v>48</v>
       </c>
     </row>
